--- a/data/pca/factorExposure/factorExposure_2016-07-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01025747111622854</v>
+        <v>0.0130130287488788</v>
       </c>
       <c r="C2">
-        <v>-0.0500382652206645</v>
+        <v>0.04072492277604758</v>
       </c>
       <c r="D2">
-        <v>-0.03792873797933771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06297134591501174</v>
+      </c>
+      <c r="E2">
+        <v>0.07214066227964502</v>
+      </c>
+      <c r="F2">
+        <v>-0.05854003516674664</v>
+      </c>
+      <c r="G2">
+        <v>-0.03998838930296197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04209854963307176</v>
+        <v>0.02869554385744166</v>
       </c>
       <c r="C3">
-        <v>-0.1192995811035319</v>
+        <v>0.07912106944494936</v>
       </c>
       <c r="D3">
-        <v>-0.1002036955795073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08980888385003745</v>
+      </c>
+      <c r="E3">
+        <v>0.06653173117276882</v>
+      </c>
+      <c r="F3">
+        <v>0.02163139252526482</v>
+      </c>
+      <c r="G3">
+        <v>0.03298851101214036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0603623985064741</v>
+        <v>0.05813531976067288</v>
       </c>
       <c r="C4">
-        <v>-0.05927300899603761</v>
+        <v>0.06434464229164506</v>
       </c>
       <c r="D4">
-        <v>-0.03587004015461626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06150209103924497</v>
+      </c>
+      <c r="E4">
+        <v>0.07457175984490165</v>
+      </c>
+      <c r="F4">
+        <v>-0.0727502034295877</v>
+      </c>
+      <c r="G4">
+        <v>0.03828565539618586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03889682237962615</v>
+        <v>0.03556896316111509</v>
       </c>
       <c r="C6">
-        <v>-0.04072416983787092</v>
+        <v>0.03148383384858617</v>
       </c>
       <c r="D6">
-        <v>-0.03091764702688997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06413205420315606</v>
+      </c>
+      <c r="E6">
+        <v>0.07669928539511942</v>
+      </c>
+      <c r="F6">
+        <v>-0.04971686449954912</v>
+      </c>
+      <c r="G6">
+        <v>0.02298344177106051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0208938202758334</v>
+        <v>0.01847350944338581</v>
       </c>
       <c r="C7">
-        <v>-0.04436699703988366</v>
+        <v>0.03855274492633174</v>
       </c>
       <c r="D7">
-        <v>0.002439895215981141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03971715510406794</v>
+      </c>
+      <c r="E7">
+        <v>0.05380472966130251</v>
+      </c>
+      <c r="F7">
+        <v>-0.09335436836414009</v>
+      </c>
+      <c r="G7">
+        <v>0.01140129563161843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003982470826576716</v>
+        <v>0.003539334451163986</v>
       </c>
       <c r="C8">
-        <v>-0.03061163758186593</v>
+        <v>0.03002662483434316</v>
       </c>
       <c r="D8">
-        <v>-0.02330854476862878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03277414507440234</v>
+      </c>
+      <c r="E8">
+        <v>0.05116107984467814</v>
+      </c>
+      <c r="F8">
+        <v>-0.03043904903436345</v>
+      </c>
+      <c r="G8">
+        <v>0.008659243206012687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03313301954351688</v>
+        <v>0.03712027463691611</v>
       </c>
       <c r="C9">
-        <v>-0.04595980169997147</v>
+        <v>0.05152860843416549</v>
       </c>
       <c r="D9">
-        <v>-0.01842601300713688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04411362474449883</v>
+      </c>
+      <c r="E9">
+        <v>0.06279935837433162</v>
+      </c>
+      <c r="F9">
+        <v>-0.07794341655285789</v>
+      </c>
+      <c r="G9">
+        <v>0.02448407103158503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07962765322702069</v>
+        <v>0.09977181749214552</v>
       </c>
       <c r="C10">
-        <v>0.1911608513122057</v>
+        <v>-0.195670185620043</v>
       </c>
       <c r="D10">
-        <v>0.004051362963024921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004757875451263796</v>
+      </c>
+      <c r="E10">
+        <v>0.04667595474119447</v>
+      </c>
+      <c r="F10">
+        <v>-0.03545606013286159</v>
+      </c>
+      <c r="G10">
+        <v>0.01017901286141889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04032687281277317</v>
+        <v>0.03659470918174513</v>
       </c>
       <c r="C11">
-        <v>-0.05559447962385504</v>
+        <v>0.05078916029682671</v>
       </c>
       <c r="D11">
-        <v>-0.01776984034444552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0353460563930208</v>
+      </c>
+      <c r="E11">
+        <v>0.02029913602394327</v>
+      </c>
+      <c r="F11">
+        <v>-0.06273556171685947</v>
+      </c>
+      <c r="G11">
+        <v>0.01725303656414751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03991564788668246</v>
+        <v>0.03751434382867293</v>
       </c>
       <c r="C12">
-        <v>-0.04949182941050798</v>
+        <v>0.04749820162106059</v>
       </c>
       <c r="D12">
-        <v>-0.005338913641122511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02751816196137133</v>
+      </c>
+      <c r="E12">
+        <v>0.0274798569857724</v>
+      </c>
+      <c r="F12">
+        <v>-0.06183771298702359</v>
+      </c>
+      <c r="G12">
+        <v>0.0141583558015653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01345019622475293</v>
+        <v>0.01215153517278377</v>
       </c>
       <c r="C13">
-        <v>-0.05537854907165174</v>
+        <v>0.04610854934484269</v>
       </c>
       <c r="D13">
-        <v>-0.01967731556366396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05849125640032063</v>
+      </c>
+      <c r="E13">
+        <v>0.08892477575012214</v>
+      </c>
+      <c r="F13">
+        <v>-0.0858897585535188</v>
+      </c>
+      <c r="G13">
+        <v>0.02053110858576113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006247298900764025</v>
+        <v>0.00476421649209628</v>
       </c>
       <c r="C14">
-        <v>-0.03845978251428406</v>
+        <v>0.03368439479444477</v>
       </c>
       <c r="D14">
-        <v>0.01098486184769844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02597602669290434</v>
+      </c>
+      <c r="E14">
+        <v>0.04238492764374096</v>
+      </c>
+      <c r="F14">
+        <v>-0.08740354592520054</v>
+      </c>
+      <c r="G14">
+        <v>-0.002295442308476511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003669572058429199</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005221714165618649</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006967164192626033</v>
+      </c>
+      <c r="E15">
+        <v>0.00280565012429943</v>
+      </c>
+      <c r="F15">
+        <v>-0.005597677680041649</v>
+      </c>
+      <c r="G15">
+        <v>-9.01917260582391e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03644846626319058</v>
+        <v>0.03425975615609628</v>
       </c>
       <c r="C16">
-        <v>-0.04871877484540879</v>
+        <v>0.04580381459230033</v>
       </c>
       <c r="D16">
-        <v>-0.01132802534164988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02839614203402267</v>
+      </c>
+      <c r="E16">
+        <v>0.03405137271810653</v>
+      </c>
+      <c r="F16">
+        <v>-0.06303603573489054</v>
+      </c>
+      <c r="G16">
+        <v>0.002843765810926505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02046038897244841</v>
+        <v>0.01650864379286326</v>
       </c>
       <c r="C19">
-        <v>-0.06547841109971503</v>
+        <v>0.05051077764883441</v>
       </c>
       <c r="D19">
-        <v>-0.08359826254285102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09235004155087703</v>
+      </c>
+      <c r="E19">
+        <v>0.09936251176001736</v>
+      </c>
+      <c r="F19">
+        <v>-0.06282152240959543</v>
+      </c>
+      <c r="G19">
+        <v>-0.02572723120943284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01586074651406376</v>
+        <v>0.01356889076885393</v>
       </c>
       <c r="C20">
-        <v>-0.04927692340843708</v>
+        <v>0.04164984954508651</v>
       </c>
       <c r="D20">
-        <v>-0.0161041055569173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04042505738673408</v>
+      </c>
+      <c r="E20">
+        <v>0.07240945684508401</v>
+      </c>
+      <c r="F20">
+        <v>-0.07005353361202334</v>
+      </c>
+      <c r="G20">
+        <v>0.007506553860769097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009133377111262239</v>
+        <v>0.00907939445998974</v>
       </c>
       <c r="C21">
-        <v>-0.05059494718503698</v>
+        <v>0.04499744563244135</v>
       </c>
       <c r="D21">
-        <v>-0.03837365762627164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06752478316189374</v>
+      </c>
+      <c r="E21">
+        <v>0.1083553060825559</v>
+      </c>
+      <c r="F21">
+        <v>-0.1066754933370981</v>
+      </c>
+      <c r="G21">
+        <v>0.008233603014464226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0005828551630030887</v>
+        <v>0.002511559038434673</v>
       </c>
       <c r="C22">
-        <v>-0.0005954002064414321</v>
+        <v>0.02496750263560681</v>
       </c>
       <c r="D22">
-        <v>-0.001695300186619469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03969850240567578</v>
+      </c>
+      <c r="E22">
+        <v>0.03144092561845965</v>
+      </c>
+      <c r="F22">
+        <v>-0.008655003381322905</v>
+      </c>
+      <c r="G22">
+        <v>0.0399664920164032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0005883545798549838</v>
+        <v>0.002582489761022424</v>
       </c>
       <c r="C23">
-        <v>-0.0005955845401057009</v>
+        <v>0.02511470546570605</v>
       </c>
       <c r="D23">
-        <v>-0.001702788141609894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03936618606418726</v>
+      </c>
+      <c r="E23">
+        <v>0.03171904564299542</v>
+      </c>
+      <c r="F23">
+        <v>-0.008431493613290547</v>
+      </c>
+      <c r="G23">
+        <v>0.04016943067320861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03288506975566755</v>
+        <v>0.03407523429063017</v>
       </c>
       <c r="C24">
-        <v>-0.05102214000932596</v>
+        <v>0.0533078630118987</v>
       </c>
       <c r="D24">
-        <v>-0.01158711478699997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02855552250997451</v>
+      </c>
+      <c r="E24">
+        <v>0.03449121628384449</v>
+      </c>
+      <c r="F24">
+        <v>-0.06945156283824423</v>
+      </c>
+      <c r="G24">
+        <v>0.01085975430648654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04658924057372436</v>
+        <v>0.0439963394818176</v>
       </c>
       <c r="C25">
-        <v>-0.06228379266952324</v>
+        <v>0.05747324485696789</v>
       </c>
       <c r="D25">
-        <v>-0.00255438194033524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02671372323262478</v>
+      </c>
+      <c r="E25">
+        <v>0.02698107984748615</v>
+      </c>
+      <c r="F25">
+        <v>-0.0730424193667695</v>
+      </c>
+      <c r="G25">
+        <v>0.0279276306810513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01456555616883508</v>
+        <v>0.01440323719760276</v>
       </c>
       <c r="C26">
-        <v>-0.01869135218692821</v>
+        <v>0.0187829556192903</v>
       </c>
       <c r="D26">
-        <v>-0.000883461471973865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02519645555367831</v>
+      </c>
+      <c r="E26">
+        <v>0.04289003010625615</v>
+      </c>
+      <c r="F26">
+        <v>-0.06346283942355009</v>
+      </c>
+      <c r="G26">
+        <v>-0.01085741976785342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09684377176858554</v>
+        <v>0.135031481269001</v>
       </c>
       <c r="C28">
-        <v>0.2370946950741234</v>
+        <v>-0.2474075341340572</v>
       </c>
       <c r="D28">
-        <v>0.0060300203855261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01948351702879906</v>
+      </c>
+      <c r="E28">
+        <v>0.06176806256385008</v>
+      </c>
+      <c r="F28">
+        <v>-0.05270038969265994</v>
+      </c>
+      <c r="G28">
+        <v>0.02119598000000243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006611679729060018</v>
+        <v>0.006105810246262507</v>
       </c>
       <c r="C29">
-        <v>-0.03194234777606161</v>
+        <v>0.02985223844800646</v>
       </c>
       <c r="D29">
-        <v>0.01488688846664173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01994009699689238</v>
+      </c>
+      <c r="E29">
+        <v>0.04286311736505535</v>
+      </c>
+      <c r="F29">
+        <v>-0.08160334887230443</v>
+      </c>
+      <c r="G29">
+        <v>0.01101413111124705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04594393440566592</v>
+        <v>0.04201015171363565</v>
       </c>
       <c r="C30">
-        <v>-0.06443537687878964</v>
+        <v>0.06439976246121236</v>
       </c>
       <c r="D30">
-        <v>-0.07911330954803991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1090288856078105</v>
+      </c>
+      <c r="E30">
+        <v>0.06601434277832142</v>
+      </c>
+      <c r="F30">
+        <v>-0.07885522445995366</v>
+      </c>
+      <c r="G30">
+        <v>-0.01214709991089493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05332745961374501</v>
+        <v>0.05581144120127922</v>
       </c>
       <c r="C31">
-        <v>-0.04068514459673554</v>
+        <v>0.05816011813802957</v>
       </c>
       <c r="D31">
-        <v>0.02693864373769173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01028996036319289</v>
+      </c>
+      <c r="E31">
+        <v>0.06577951325793197</v>
+      </c>
+      <c r="F31">
+        <v>-0.06369594349546538</v>
+      </c>
+      <c r="G31">
+        <v>0.04929244607936705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002764749657788182</v>
+        <v>0.004350649835104489</v>
       </c>
       <c r="C32">
-        <v>-0.03721078829645615</v>
+        <v>0.03416828468863981</v>
       </c>
       <c r="D32">
-        <v>-0.04241081147639153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05325596452331564</v>
+      </c>
+      <c r="E32">
+        <v>0.04553585082165412</v>
+      </c>
+      <c r="F32">
+        <v>-0.06193658626289292</v>
+      </c>
+      <c r="G32">
+        <v>-0.008219013925682203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02631191745430462</v>
+        <v>0.02456110179318726</v>
       </c>
       <c r="C33">
-        <v>-0.06112902541764235</v>
+        <v>0.05531732864965421</v>
       </c>
       <c r="D33">
-        <v>-0.04973832292441898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08158770465744761</v>
+      </c>
+      <c r="E33">
+        <v>0.07779622508306155</v>
+      </c>
+      <c r="F33">
+        <v>-0.1092563012982445</v>
+      </c>
+      <c r="G33">
+        <v>0.02300510268934391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.044867210290362</v>
+        <v>0.04143143252941554</v>
       </c>
       <c r="C34">
-        <v>-0.06602086587252178</v>
+        <v>0.06440035671049696</v>
       </c>
       <c r="D34">
-        <v>-0.01563034796067941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03580658401352439</v>
+      </c>
+      <c r="E34">
+        <v>0.007198637214776078</v>
+      </c>
+      <c r="F34">
+        <v>-0.07532168433052877</v>
+      </c>
+      <c r="G34">
+        <v>0.01301739287646418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01358405020603051</v>
+        <v>0.01330219922891939</v>
       </c>
       <c r="C36">
-        <v>-0.01560164870409943</v>
+        <v>0.01335109084760758</v>
       </c>
       <c r="D36">
-        <v>0.0006907013586919382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02709437188437974</v>
+      </c>
+      <c r="E36">
+        <v>0.05174153612299767</v>
+      </c>
+      <c r="F36">
+        <v>-0.06784818118973203</v>
+      </c>
+      <c r="G36">
+        <v>0.01142328665446604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03046753198243057</v>
+        <v>0.02432569719666974</v>
       </c>
       <c r="C38">
-        <v>-0.03030494081137548</v>
+        <v>0.02426803175078043</v>
       </c>
       <c r="D38">
-        <v>0.00485624569601836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02824609962181318</v>
+      </c>
+      <c r="E38">
+        <v>0.04608950631105847</v>
+      </c>
+      <c r="F38">
+        <v>-0.0563226658455765</v>
+      </c>
+      <c r="G38">
+        <v>0.002994131819652546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04416886833588853</v>
+        <v>0.04014403051095797</v>
       </c>
       <c r="C39">
-        <v>-0.07109537364523429</v>
+        <v>0.06783019305372047</v>
       </c>
       <c r="D39">
-        <v>-0.02370253161280949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05567532699815748</v>
+      </c>
+      <c r="E39">
+        <v>0.03933884354931538</v>
+      </c>
+      <c r="F39">
+        <v>-0.08107618350438106</v>
+      </c>
+      <c r="G39">
+        <v>-0.01118333504570026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01276947086804879</v>
+        <v>0.01383057965085636</v>
       </c>
       <c r="C40">
-        <v>-0.05239606719851939</v>
+        <v>0.03958708974599844</v>
       </c>
       <c r="D40">
-        <v>-0.01956418916922573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03794410393706212</v>
+      </c>
+      <c r="E40">
+        <v>0.0777739719442362</v>
+      </c>
+      <c r="F40">
+        <v>-0.06279237869254742</v>
+      </c>
+      <c r="G40">
+        <v>0.04020282399208123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01892694311965154</v>
+        <v>0.01812597564146452</v>
       </c>
       <c r="C41">
-        <v>-0.007175811364109949</v>
+        <v>0.008718321056152728</v>
       </c>
       <c r="D41">
-        <v>0.001725284647404516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01521660993936725</v>
+      </c>
+      <c r="E41">
+        <v>0.05133688143832356</v>
+      </c>
+      <c r="F41">
+        <v>-0.05838099266989896</v>
+      </c>
+      <c r="G41">
+        <v>0.003754122769807049</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0351601546984269</v>
+        <v>0.02846677421807703</v>
       </c>
       <c r="C43">
-        <v>-0.02547377059981273</v>
+        <v>0.02292383068770948</v>
       </c>
       <c r="D43">
-        <v>-0.02452915661307178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04161532173033827</v>
+      </c>
+      <c r="E43">
+        <v>0.06332657427074682</v>
+      </c>
+      <c r="F43">
+        <v>-0.06520596890302287</v>
+      </c>
+      <c r="G43">
+        <v>0.02290219327170543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01297279585062299</v>
+        <v>0.01458566961071905</v>
       </c>
       <c r="C44">
-        <v>-0.06676533871922981</v>
+        <v>0.05154068753136568</v>
       </c>
       <c r="D44">
-        <v>-0.01405933830354673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04255376858353432</v>
+      </c>
+      <c r="E44">
+        <v>0.08356919974408676</v>
+      </c>
+      <c r="F44">
+        <v>-0.06736077369755733</v>
+      </c>
+      <c r="G44">
+        <v>-0.005905707893924019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005076526571459945</v>
+        <v>0.007941615171562801</v>
       </c>
       <c r="C46">
-        <v>-0.02485628161665396</v>
+        <v>0.02763475325479576</v>
       </c>
       <c r="D46">
-        <v>0.01816420857824311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01271796262669781</v>
+      </c>
+      <c r="E46">
+        <v>0.05183015587392364</v>
+      </c>
+      <c r="F46">
+        <v>-0.09450400506473895</v>
+      </c>
+      <c r="G46">
+        <v>0.003534581855557295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08175409539634672</v>
+        <v>0.08779478578423508</v>
       </c>
       <c r="C47">
-        <v>-0.06996697814432921</v>
+        <v>0.0802347612055416</v>
       </c>
       <c r="D47">
-        <v>0.0263641947436623</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01524572379734673</v>
+      </c>
+      <c r="E47">
+        <v>0.06967757036955348</v>
+      </c>
+      <c r="F47">
+        <v>-0.06901654594759685</v>
+      </c>
+      <c r="G47">
+        <v>0.05226927361250742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01813318267146524</v>
+        <v>0.01581469524680134</v>
       </c>
       <c r="C48">
-        <v>-0.01498419772649225</v>
+        <v>0.01758384291959294</v>
       </c>
       <c r="D48">
-        <v>0.01330695449289248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01759314191858688</v>
+      </c>
+      <c r="E48">
+        <v>0.06315704298322486</v>
+      </c>
+      <c r="F48">
+        <v>-0.08414999038645841</v>
+      </c>
+      <c r="G48">
+        <v>0.01038960533101034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07870924496169789</v>
+        <v>0.07107825152450896</v>
       </c>
       <c r="C50">
-        <v>-0.07536029299501046</v>
+        <v>0.07295660079805218</v>
       </c>
       <c r="D50">
-        <v>0.02877894266899432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002567897969040305</v>
+      </c>
+      <c r="E50">
+        <v>0.0723096947665465</v>
+      </c>
+      <c r="F50">
+        <v>-0.04828651928548723</v>
+      </c>
+      <c r="G50">
+        <v>0.07112513296766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01500831652246369</v>
+        <v>0.01105296106671414</v>
       </c>
       <c r="C51">
-        <v>-0.05217629915131115</v>
+        <v>0.03414609727375736</v>
       </c>
       <c r="D51">
-        <v>-0.0294260353669091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05066612155167085</v>
+      </c>
+      <c r="E51">
+        <v>0.04155618343722247</v>
+      </c>
+      <c r="F51">
+        <v>-0.07055882215508186</v>
+      </c>
+      <c r="G51">
+        <v>-0.01901175476651258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07998621400510821</v>
+        <v>0.09384225424484692</v>
       </c>
       <c r="C53">
-        <v>-0.07809097608881853</v>
+        <v>0.08739207335546113</v>
       </c>
       <c r="D53">
-        <v>0.03767728630835429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03825870172723249</v>
+      </c>
+      <c r="E53">
+        <v>0.06877189607570569</v>
+      </c>
+      <c r="F53">
+        <v>-0.07897947488593984</v>
+      </c>
+      <c r="G53">
+        <v>0.06562668231598855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02904646412448155</v>
+        <v>0.02771528187876042</v>
       </c>
       <c r="C54">
-        <v>-0.02983826612665936</v>
+        <v>0.02846179720759233</v>
       </c>
       <c r="D54">
-        <v>-0.004691060874072064</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03096399685492483</v>
+      </c>
+      <c r="E54">
+        <v>0.05034779867968066</v>
+      </c>
+      <c r="F54">
+        <v>-0.0920968508485354</v>
+      </c>
+      <c r="G54">
+        <v>0.01170670675938343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.073912534290083</v>
+        <v>0.08522848300049556</v>
       </c>
       <c r="C55">
-        <v>-0.05931918957679728</v>
+        <v>0.07031236738093227</v>
       </c>
       <c r="D55">
-        <v>0.04792646151583062</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04709463785465475</v>
+      </c>
+      <c r="E55">
+        <v>0.05248071597450379</v>
+      </c>
+      <c r="F55">
+        <v>-0.05565716086655069</v>
+      </c>
+      <c r="G55">
+        <v>0.05346951886181342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1424588790761745</v>
+        <v>0.1469787847936473</v>
       </c>
       <c r="C56">
-        <v>-0.09623373317287269</v>
+        <v>0.1058016805210769</v>
       </c>
       <c r="D56">
-        <v>0.04408810993795858</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04660117357536179</v>
+      </c>
+      <c r="E56">
+        <v>0.05330247643289827</v>
+      </c>
+      <c r="F56">
+        <v>-0.04185144152193945</v>
+      </c>
+      <c r="G56">
+        <v>0.05834377922460536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0007526513583880346</v>
+        <v>0.0002414669315903943</v>
       </c>
       <c r="C57">
-        <v>0.002130292357748757</v>
+        <v>-0.00116096873118011</v>
       </c>
       <c r="D57">
-        <v>-0.01297966197688482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01066225496206951</v>
+      </c>
+      <c r="E57">
+        <v>0.006667741355803012</v>
+      </c>
+      <c r="F57">
+        <v>-0.008216760418274481</v>
+      </c>
+      <c r="G57">
+        <v>0.0002239505671430657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04896162236862368</v>
+        <v>0.02960431869264431</v>
       </c>
       <c r="C58">
-        <v>-0.03795184427653177</v>
+        <v>0.03223320742413627</v>
       </c>
       <c r="D58">
-        <v>-0.6477445881053162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4137573339174047</v>
+      </c>
+      <c r="E58">
+        <v>0.6199498053090896</v>
+      </c>
+      <c r="F58">
+        <v>0.5801893346696662</v>
+      </c>
+      <c r="G58">
+        <v>-0.0961396997218476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1352951918565753</v>
+        <v>0.1440615678017848</v>
       </c>
       <c r="C59">
-        <v>0.1914268132286306</v>
+        <v>-0.1868104111563123</v>
       </c>
       <c r="D59">
-        <v>-0.020868951184678</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02815862048211666</v>
+      </c>
+      <c r="E59">
+        <v>0.02552304774114572</v>
+      </c>
+      <c r="F59">
+        <v>-0.02092386520331812</v>
+      </c>
+      <c r="G59">
+        <v>-0.02871601139111421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3082071312750307</v>
+        <v>0.2826450904168951</v>
       </c>
       <c r="C60">
-        <v>-0.1009519025136623</v>
+        <v>0.09896182595515694</v>
       </c>
       <c r="D60">
-        <v>-0.1495218063131415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2214660837112205</v>
+      </c>
+      <c r="E60">
+        <v>-0.2778629663429579</v>
+      </c>
+      <c r="F60">
+        <v>0.07992512615838041</v>
+      </c>
+      <c r="G60">
+        <v>0.05107000613581554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04186487197811925</v>
+        <v>0.04128069510858905</v>
       </c>
       <c r="C61">
-        <v>-0.06643713053891161</v>
+        <v>0.06239318122737324</v>
       </c>
       <c r="D61">
-        <v>-0.01887420940062166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04715274043817262</v>
+      </c>
+      <c r="E61">
+        <v>0.04314327605575015</v>
+      </c>
+      <c r="F61">
+        <v>-0.07040659212752501</v>
+      </c>
+      <c r="G61">
+        <v>0.01393137555232163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01477434602615699</v>
+        <v>0.01498776175368852</v>
       </c>
       <c r="C63">
-        <v>-0.03269525838768141</v>
+        <v>0.03123269823862813</v>
       </c>
       <c r="D63">
-        <v>0.009290539232808263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02121329170338452</v>
+      </c>
+      <c r="E63">
+        <v>0.05505003081741805</v>
+      </c>
+      <c r="F63">
+        <v>-0.06340996341567673</v>
+      </c>
+      <c r="G63">
+        <v>0.02985016749574281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04815525873233513</v>
+        <v>0.05606217087525782</v>
       </c>
       <c r="C64">
-        <v>-0.04558617587407038</v>
+        <v>0.05621303238269224</v>
       </c>
       <c r="D64">
-        <v>-0.006216790641892927</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009504607718061553</v>
+      </c>
+      <c r="E64">
+        <v>0.03693927586477059</v>
+      </c>
+      <c r="F64">
+        <v>-0.08263221436215637</v>
+      </c>
+      <c r="G64">
+        <v>0.01334764245296616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08644401994507117</v>
+        <v>0.07016633045399437</v>
       </c>
       <c r="C65">
-        <v>-0.03523831286441002</v>
+        <v>0.03214991221360775</v>
       </c>
       <c r="D65">
-        <v>-0.05317025906179867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08689522234143633</v>
+      </c>
+      <c r="E65">
+        <v>0.04040350256108729</v>
+      </c>
+      <c r="F65">
+        <v>-0.001210413868285132</v>
+      </c>
+      <c r="G65">
+        <v>0.0010794421599241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06127980448078323</v>
+        <v>0.05252719423005385</v>
       </c>
       <c r="C66">
-        <v>-0.1001760389277509</v>
+        <v>0.08880370803034604</v>
       </c>
       <c r="D66">
-        <v>-0.04699468673801051</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08258003589144924</v>
+      </c>
+      <c r="E66">
+        <v>0.04515795700677293</v>
+      </c>
+      <c r="F66">
+        <v>-0.08211877340509796</v>
+      </c>
+      <c r="G66">
+        <v>0.005166071057563851</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05241669097310854</v>
+        <v>0.04622843651419658</v>
       </c>
       <c r="C67">
-        <v>-0.03447465017260498</v>
+        <v>0.03028046684083614</v>
       </c>
       <c r="D67">
-        <v>0.007517944865409056</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01433483389846072</v>
+      </c>
+      <c r="E67">
+        <v>0.02564087692419936</v>
+      </c>
+      <c r="F67">
+        <v>-0.04787255300824247</v>
+      </c>
+      <c r="G67">
+        <v>0.009400453718592907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1311440827545264</v>
+        <v>0.1503977687018252</v>
       </c>
       <c r="C68">
-        <v>0.2811474796033708</v>
+        <v>-0.2488814650466651</v>
       </c>
       <c r="D68">
-        <v>0.01141881016655991</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01856384524254388</v>
+      </c>
+      <c r="E68">
+        <v>0.0435553553831412</v>
+      </c>
+      <c r="F68">
+        <v>-0.01360213536405734</v>
+      </c>
+      <c r="G68">
+        <v>0.01109209474805212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08847587433009628</v>
+        <v>0.08747330336186294</v>
       </c>
       <c r="C69">
-        <v>-0.06839837935142903</v>
+        <v>0.08664225280334484</v>
       </c>
       <c r="D69">
-        <v>0.03570231642020116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007088504258502979</v>
+      </c>
+      <c r="E69">
+        <v>0.05322360906616667</v>
+      </c>
+      <c r="F69">
+        <v>-0.08726839880711629</v>
+      </c>
+      <c r="G69">
+        <v>0.03204676161277982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1214185001169859</v>
+        <v>0.1425741055572554</v>
       </c>
       <c r="C71">
-        <v>0.2478979918394978</v>
+        <v>-0.2363549050260939</v>
       </c>
       <c r="D71">
-        <v>-0.02459466817487407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01181746730905805</v>
+      </c>
+      <c r="E71">
+        <v>0.06789617997933356</v>
+      </c>
+      <c r="F71">
+        <v>-0.04965095398161622</v>
+      </c>
+      <c r="G71">
+        <v>0.03770381867358436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0877831973507108</v>
+        <v>0.09831973036690664</v>
       </c>
       <c r="C72">
-        <v>-0.0532218992895613</v>
+        <v>0.0562719565078138</v>
       </c>
       <c r="D72">
-        <v>-0.006421365474970245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02906307224075923</v>
+      </c>
+      <c r="E72">
+        <v>0.02059507237184753</v>
+      </c>
+      <c r="F72">
+        <v>-0.06701639825763493</v>
+      </c>
+      <c r="G72">
+        <v>0.03823228673898035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.409093948496123</v>
+        <v>0.3474512233564338</v>
       </c>
       <c r="C73">
-        <v>-0.06762156830596305</v>
+        <v>0.07225347482763909</v>
       </c>
       <c r="D73">
-        <v>-0.37356767844357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4595328130120934</v>
+      </c>
+      <c r="E73">
+        <v>-0.4890834776846241</v>
+      </c>
+      <c r="F73">
+        <v>0.2274057240764091</v>
+      </c>
+      <c r="G73">
+        <v>0.1007515289775261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1055241359069066</v>
+        <v>0.110587093849053</v>
       </c>
       <c r="C74">
-        <v>-0.09739298275553923</v>
+        <v>0.09639814565630339</v>
       </c>
       <c r="D74">
-        <v>0.02133288328606797</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02941172099976118</v>
+      </c>
+      <c r="E74">
+        <v>0.06946037987026389</v>
+      </c>
+      <c r="F74">
+        <v>-0.04064578983720672</v>
+      </c>
+      <c r="G74">
+        <v>0.07248023992311407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2509387129395264</v>
+        <v>0.2571398406101962</v>
       </c>
       <c r="C75">
-        <v>-0.1055183884847627</v>
+        <v>0.1296616909826939</v>
       </c>
       <c r="D75">
-        <v>0.09616631347748963</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1273752110707316</v>
+      </c>
+      <c r="E75">
+        <v>0.06853720452578901</v>
+      </c>
+      <c r="F75">
+        <v>-0.01923590612623451</v>
+      </c>
+      <c r="G75">
+        <v>0.07357377394423142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1109771687753759</v>
+        <v>0.1268800254585776</v>
       </c>
       <c r="C76">
-        <v>-0.08933797640257103</v>
+        <v>0.09907157036139036</v>
       </c>
       <c r="D76">
-        <v>0.04904424324317475</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05652585475415961</v>
+      </c>
+      <c r="E76">
+        <v>0.08208386590963897</v>
+      </c>
+      <c r="F76">
+        <v>-0.06239040193525959</v>
+      </c>
+      <c r="G76">
+        <v>0.05710022729049309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07673637694278883</v>
+        <v>0.0615389615685828</v>
       </c>
       <c r="C77">
-        <v>-0.0634386905809337</v>
+        <v>0.074484058352461</v>
       </c>
       <c r="D77">
-        <v>-0.05311242077264263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06561938663860167</v>
+      </c>
+      <c r="E77">
+        <v>0.09480160781225967</v>
+      </c>
+      <c r="F77">
+        <v>-0.1090928519612717</v>
+      </c>
+      <c r="G77">
+        <v>-0.1412322309487482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04686030953635396</v>
+        <v>0.04379390686134889</v>
       </c>
       <c r="C78">
-        <v>-0.05272050903051931</v>
+        <v>0.06024251087677424</v>
       </c>
       <c r="D78">
-        <v>-0.02887840992325443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06605981891760727</v>
+      </c>
+      <c r="E78">
+        <v>0.04808827743026679</v>
+      </c>
+      <c r="F78">
+        <v>-0.08377441001697972</v>
+      </c>
+      <c r="G78">
+        <v>0.009312525175249154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02757337783129117</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04192387137983575</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06049636352962749</v>
+      </c>
+      <c r="E79">
+        <v>0.06630524544570808</v>
+      </c>
+      <c r="F79">
+        <v>-0.03064818835274698</v>
+      </c>
+      <c r="G79">
+        <v>0.07890115521623133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04432558396769033</v>
+        <v>0.03410060384432597</v>
       </c>
       <c r="C80">
-        <v>-0.05623435231845844</v>
+        <v>0.05514618938811031</v>
       </c>
       <c r="D80">
-        <v>-0.03164858829749627</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04482443463267303</v>
+      </c>
+      <c r="E80">
+        <v>0.01638746681267386</v>
+      </c>
+      <c r="F80">
+        <v>-0.03127083154636897</v>
+      </c>
+      <c r="G80">
+        <v>-0.04597637147394123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1394992156442178</v>
+        <v>0.1403361309790855</v>
       </c>
       <c r="C81">
-        <v>-0.08073112522031747</v>
+        <v>0.09558299153465437</v>
       </c>
       <c r="D81">
-        <v>0.07745169082525154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1000561387652815</v>
+      </c>
+      <c r="E81">
+        <v>0.08580149020208154</v>
+      </c>
+      <c r="F81">
+        <v>-0.006214786942685172</v>
+      </c>
+      <c r="G81">
+        <v>0.0506785022459826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1611171938060239</v>
+        <v>0.2039568130420664</v>
       </c>
       <c r="C82">
-        <v>-0.0751407550532764</v>
+        <v>0.1408833749909013</v>
       </c>
       <c r="D82">
-        <v>0.1573161572658486</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2319302440815674</v>
+      </c>
+      <c r="E82">
+        <v>0.01101174743018086</v>
+      </c>
+      <c r="F82">
+        <v>-0.106422722657919</v>
+      </c>
+      <c r="G82">
+        <v>0.05681193008018133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03987884118255751</v>
+        <v>0.02852644207060258</v>
       </c>
       <c r="C83">
-        <v>-0.02981523967918968</v>
+        <v>0.04248041628493692</v>
       </c>
       <c r="D83">
-        <v>-0.03649387087818527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03435488960711528</v>
+      </c>
+      <c r="E83">
+        <v>0.02097522002878728</v>
+      </c>
+      <c r="F83">
+        <v>-0.04104091792788968</v>
+      </c>
+      <c r="G83">
+        <v>-0.01929163748480495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.331248081771749e-06</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>5.394467857859342e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0002195211170107539</v>
+      </c>
+      <c r="E84">
+        <v>5.563201639137886e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.0007222225967451569</v>
+      </c>
+      <c r="G84">
+        <v>0.0003944972987171846</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2172565452536416</v>
+        <v>0.2030191119621405</v>
       </c>
       <c r="C85">
-        <v>-0.1042106589493371</v>
+        <v>0.1165930417536308</v>
       </c>
       <c r="D85">
-        <v>0.1223439290627829</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09702113658023721</v>
+      </c>
+      <c r="E85">
+        <v>0.0002506538713003536</v>
+      </c>
+      <c r="F85">
+        <v>0.008248651049787881</v>
+      </c>
+      <c r="G85">
+        <v>0.1262192704516721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00939114257426067</v>
+        <v>0.01050432919865191</v>
       </c>
       <c r="C86">
-        <v>-0.04323960191325627</v>
+        <v>0.03150124141053462</v>
       </c>
       <c r="D86">
-        <v>-0.04503598563795912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06556094344426674</v>
+      </c>
+      <c r="E86">
+        <v>0.06941629126095741</v>
+      </c>
+      <c r="F86">
+        <v>-0.1214203510468428</v>
+      </c>
+      <c r="G86">
+        <v>-0.01237097557467017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0234739898774168</v>
+        <v>0.02213229668212087</v>
       </c>
       <c r="C87">
-        <v>-0.01222803327784299</v>
+        <v>0.0196374342169958</v>
       </c>
       <c r="D87">
-        <v>-0.08957085194355295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09067254403498078</v>
+      </c>
+      <c r="E87">
+        <v>0.1150494976754082</v>
+      </c>
+      <c r="F87">
+        <v>-0.06072665264827793</v>
+      </c>
+      <c r="G87">
+        <v>-0.04235794482863783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.104797126222503</v>
+        <v>0.09330880528378205</v>
       </c>
       <c r="C88">
-        <v>-0.07170831147512659</v>
+        <v>0.06349298915447703</v>
       </c>
       <c r="D88">
-        <v>0.02155231612230907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008530447625749329</v>
+      </c>
+      <c r="E88">
+        <v>0.04841488066833934</v>
+      </c>
+      <c r="F88">
+        <v>-0.06673002343220977</v>
+      </c>
+      <c r="G88">
+        <v>-0.02613539682333143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1903205327121165</v>
+        <v>0.2191992416431351</v>
       </c>
       <c r="C89">
-        <v>0.3757103910733403</v>
+        <v>-0.3795585567056862</v>
       </c>
       <c r="D89">
-        <v>0.01648659251451526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008880008205814334</v>
+      </c>
+      <c r="E89">
+        <v>0.06728613007373245</v>
+      </c>
+      <c r="F89">
+        <v>-0.07315302662363067</v>
+      </c>
+      <c r="G89">
+        <v>-0.06318369231579925</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.182196201749978</v>
+        <v>0.199418476492006</v>
       </c>
       <c r="C90">
-        <v>0.3340707105455201</v>
+        <v>-0.312894404516863</v>
       </c>
       <c r="D90">
-        <v>0.01695050718966401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01276682551393866</v>
+      </c>
+      <c r="E90">
+        <v>0.07598344884297917</v>
+      </c>
+      <c r="F90">
+        <v>-0.03547905491030247</v>
+      </c>
+      <c r="G90">
+        <v>-0.01405584955661991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1872902898239827</v>
+        <v>0.1858830768271387</v>
       </c>
       <c r="C91">
-        <v>-0.1254450100711189</v>
+        <v>0.1403553080145723</v>
       </c>
       <c r="D91">
-        <v>0.094016096501882</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1059777287471944</v>
+      </c>
+      <c r="E91">
+        <v>0.06561206386925127</v>
+      </c>
+      <c r="F91">
+        <v>-0.03264448319782975</v>
+      </c>
+      <c r="G91">
+        <v>0.0574010250979184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1674572035319383</v>
+        <v>0.1803891720680504</v>
       </c>
       <c r="C92">
-        <v>0.2821327781661809</v>
+        <v>-0.286614832105158</v>
       </c>
       <c r="D92">
-        <v>0.00106705027544962</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.007570997189736458</v>
+      </c>
+      <c r="E92">
+        <v>0.0751336924561113</v>
+      </c>
+      <c r="F92">
+        <v>-0.08226649992424985</v>
+      </c>
+      <c r="G92">
+        <v>-0.008105819558070932</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2052171955286344</v>
+        <v>0.222906290786535</v>
       </c>
       <c r="C93">
-        <v>0.3357325937742522</v>
+        <v>-0.3188038956093731</v>
       </c>
       <c r="D93">
-        <v>0.01700886662831125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.00676423021577163</v>
+      </c>
+      <c r="E93">
+        <v>0.05081484360386694</v>
+      </c>
+      <c r="F93">
+        <v>-0.03761750162249224</v>
+      </c>
+      <c r="G93">
+        <v>0.02751217273288066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.341256975811922</v>
+        <v>0.3447149892479383</v>
       </c>
       <c r="C94">
-        <v>-0.152401532643104</v>
+        <v>0.1830694950099375</v>
       </c>
       <c r="D94">
-        <v>0.4902883014010202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5064149641826362</v>
+      </c>
+      <c r="E94">
+        <v>0.01903990990651007</v>
+      </c>
+      <c r="F94">
+        <v>0.4473451951880817</v>
+      </c>
+      <c r="G94">
+        <v>-0.3412429968525017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1104236717213792</v>
+        <v>0.08467997997648577</v>
       </c>
       <c r="C95">
-        <v>-0.07697457575489575</v>
+        <v>0.06656885901239644</v>
       </c>
       <c r="D95">
-        <v>-0.1319957778512428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1664671085190826</v>
+      </c>
+      <c r="E95">
+        <v>-0.1069001757045845</v>
+      </c>
+      <c r="F95">
+        <v>-0.2594617149711176</v>
+      </c>
+      <c r="G95">
+        <v>-0.8560409333018658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1959517123137269</v>
+        <v>0.1881058110524871</v>
       </c>
       <c r="C98">
-        <v>-0.02216243674865622</v>
+        <v>0.03916673745568915</v>
       </c>
       <c r="D98">
-        <v>-0.1442253115553009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1847828069238326</v>
+      </c>
+      <c r="E98">
+        <v>-0.1545825062549044</v>
+      </c>
+      <c r="F98">
+        <v>0.0318616658275501</v>
+      </c>
+      <c r="G98">
+        <v>0.09917031381058697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006560566851795479</v>
+        <v>0.006157233226138495</v>
       </c>
       <c r="C101">
-        <v>-0.03194595017096082</v>
+        <v>0.02959314027779329</v>
       </c>
       <c r="D101">
-        <v>0.01555188884558305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01940432077290511</v>
+      </c>
+      <c r="E101">
+        <v>0.04351687713125457</v>
+      </c>
+      <c r="F101">
+        <v>-0.08127696186891052</v>
+      </c>
+      <c r="G101">
+        <v>0.00989365425511904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1213109119639855</v>
+        <v>0.1247367398917677</v>
       </c>
       <c r="C102">
-        <v>-0.07355576867451435</v>
+        <v>0.09879629415529179</v>
       </c>
       <c r="D102">
-        <v>0.02898400872753048</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04570034737539757</v>
+      </c>
+      <c r="E102">
+        <v>-0.001569012553919057</v>
+      </c>
+      <c r="F102">
+        <v>-0.04713329033491716</v>
+      </c>
+      <c r="G102">
+        <v>0.01885580391192662</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
